--- a/guidelines.xlsx
+++ b/guidelines.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\groupomania\archives\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\groupomania-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CD111F-54DD-429A-915D-D5A4C2A397AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2A5A76-9ACB-41EA-84A4-E2DC0C4BE856}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{4BD31C53-DD75-48FB-8656-2190793F9E16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4BD31C53-DD75-48FB-8656-2190793F9E16}"/>
   </bookViews>
   <sheets>
     <sheet name="auth" sheetId="1" r:id="rId1"/>
@@ -694,9 +694,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6537C82F-5027-4488-A01D-79B6180E84AE}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +779,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,7 +1001,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,7 +1031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1140,8 +1140,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1824F00-18E2-4D61-8CEE-7A0FCB00D219}">
   <dimension ref="A1:F4"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="6" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3B5618-09C2-4B3A-8757-19D88A17F3E6}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,7 +1256,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1179,16 +1264,16 @@
         <v>71</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1199,36 +1284,70 @@
         <v>71</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3B5618-09C2-4B3A-8757-19D88A17F3E6}">
-  <dimension ref="A1:F5"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8C2FE0-6AB2-448A-AE86-C34E5546C827}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,127 +1381,6 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8C2FE0-6AB2-448A-AE86-C34E5546C827}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="6" width="50.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
